--- a/examples/PH.xlsx
+++ b/examples/PH.xlsx
@@ -32,32 +32,27 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,7 +102,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -128,15 +123,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A14"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -206,6 +201,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
